--- a/UserService/test_user.xlsx
+++ b/UserService/test_user.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -34,16 +34,16 @@
     <t>type</t>
   </si>
   <si>
-    <t>양효식</t>
+    <t>test1</t>
   </si>
   <si>
     <t>hsyang@sejong.ac.kr</t>
   </si>
   <si>
-    <t>excel11</t>
+    <t>test2</t>
   </si>
   <si>
-    <t>excel21</t>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -60,7 +60,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -76,7 +75,6 @@
       <i/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,14 +95,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -353,8 +349,8 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2">
-        <v>133333.0</v>
+      <c r="A2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="3">
         <v>1.23456789E8</v>
@@ -362,22 +358,22 @@
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>1.0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>1.23456789E8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2">
-        <v>121212.0</v>
+      <c r="A3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>1.23456789E8</v>
@@ -385,22 +381,22 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>1.0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>1.23456789E8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2">
-        <v>55555.0</v>
+      <c r="A4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>1.23456789E8</v>
@@ -408,16 +404,16 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1.0</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>1.23456789E8</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>2.0</v>
       </c>
     </row>
